--- a/outputs/test_results.xlsx
+++ b/outputs/test_results.xlsx
@@ -515,7 +515,7 @@
         <v>0.04651162790697674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5629690885543823</v>
+        <v>0.7486786842346191</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +555,7 @@
         <v>0.01183431952662722</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3520822823047638</v>
+        <v>0.5345070958137512</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
         <v>0.04316546762589929</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4848578572273254</v>
+        <v>0.7362808585166931</v>
       </c>
     </row>
     <row r="5">
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1674212664365768</v>
+        <v>0.6279824376106262</v>
       </c>
     </row>
     <row r="6">
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2782687246799469</v>
+        <v>0.5337620377540588</v>
       </c>
     </row>
     <row r="7">
@@ -707,7 +707,7 @@
         <v>0.01408450704225352</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4099711775779724</v>
+        <v>0.4877206385135651</v>
       </c>
     </row>
     <row r="8">
@@ -745,7 +745,7 @@
         <v>0.02777777777777778</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3106383681297302</v>
+        <v>0.5922473669052124</v>
       </c>
     </row>
     <row r="9">
@@ -783,7 +783,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.781173050403595</v>
+        <v>0.938824474811554</v>
       </c>
     </row>
     <row r="10">
@@ -821,7 +821,7 @@
         <v>0.1214953271028037</v>
       </c>
       <c r="I10" t="n">
-        <v>0.621462345123291</v>
+        <v>0.8562067747116089</v>
       </c>
     </row>
     <row r="11">
@@ -859,7 +859,7 @@
         <v>0.08602150537634408</v>
       </c>
       <c r="I11" t="n">
-        <v>0.712431788444519</v>
+        <v>0.8133592009544373</v>
       </c>
     </row>
     <row r="12">
@@ -904,7 +904,7 @@
         <v>0.1267605633802817</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6283955574035645</v>
+        <v>0.8612067699432373</v>
       </c>
     </row>
     <row r="13">
@@ -942,7 +942,7 @@
         <v>0.01197604790419162</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4894175231456757</v>
+        <v>0.6101190447807312</v>
       </c>
     </row>
     <row r="14">
@@ -980,7 +980,7 @@
         <v>0.05479452054794521</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5379668474197388</v>
+        <v>0.7390747666358948</v>
       </c>
     </row>
     <row r="15">
@@ -1018,7 +1018,7 @@
         <v>0.03108808290155441</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5181368589401245</v>
+        <v>0.7546271681785583</v>
       </c>
     </row>
     <row r="16">
@@ -1056,7 +1056,7 @@
         <v>0.03225806451612903</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3313674032688141</v>
+        <v>0.6175278425216675</v>
       </c>
     </row>
     <row r="17">
@@ -1094,7 +1094,7 @@
         <v>0.07582938388625592</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5384502410888672</v>
+        <v>0.8419922590255737</v>
       </c>
     </row>
     <row r="18">
@@ -1133,7 +1133,7 @@
         <v>0.1090909090909091</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5067451000213623</v>
+        <v>0.824176549911499</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1171,7 @@
         <v>0.0821917808219178</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6012458205223083</v>
+        <v>0.8957028388977051</v>
       </c>
     </row>
     <row r="20">
@@ -1209,7 +1209,7 @@
         <v>0.01834862385321101</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4951469302177429</v>
+        <v>0.6814243793487549</v>
       </c>
     </row>
     <row r="21">
@@ -1247,7 +1247,7 @@
         <v>0.1488372093023256</v>
       </c>
       <c r="I21" t="n">
-        <v>0.660416841506958</v>
+        <v>0.9017659425735474</v>
       </c>
     </row>
     <row r="22">
@@ -1285,7 +1285,7 @@
         <v>0.0892857142857143</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7018884420394897</v>
+        <v>0.8773304224014282</v>
       </c>
     </row>
     <row r="23">
@@ -1323,7 +1323,7 @@
         <v>0.08294930875576037</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6785891652107239</v>
+        <v>0.8879119157791138</v>
       </c>
     </row>
     <row r="24">
@@ -1361,7 +1361,7 @@
         <v>0.1518987341772152</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7980868220329285</v>
+        <v>0.91548091173172</v>
       </c>
     </row>
     <row r="25">
@@ -1399,7 +1399,7 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5894474387168884</v>
+        <v>0.7821735739707947</v>
       </c>
     </row>
     <row r="26">
@@ -1437,7 +1437,7 @@
         <v>0.05479452054794521</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4163064360618591</v>
+        <v>0.7952636480331421</v>
       </c>
     </row>
     <row r="27">
@@ -1475,7 +1475,7 @@
         <v>0.01360544217687075</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3807468116283417</v>
+        <v>0.696063220500946</v>
       </c>
     </row>
     <row r="28">
@@ -1513,7 +1513,7 @@
         <v>0.02339181286549708</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3272756040096283</v>
+        <v>0.763172447681427</v>
       </c>
     </row>
     <row r="29">
@@ -1551,7 +1551,7 @@
         <v>0.09016393442622951</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7351440191268921</v>
+        <v>0.8555868268013</v>
       </c>
     </row>
     <row r="30">
@@ -1589,7 +1589,7 @@
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6795286536216736</v>
+        <v>0.8879061937332153</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1627,7 @@
         <v>0.08530805687203792</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6543587446212769</v>
+        <v>0.9154852628707886</v>
       </c>
     </row>
     <row r="32">
@@ -1669,7 +1669,7 @@
         <v>0.1232227488151659</v>
       </c>
       <c r="I32" t="n">
-        <v>0.773810088634491</v>
+        <v>0.8635211586952209</v>
       </c>
     </row>
     <row r="33">
@@ -1707,7 +1707,7 @@
         <v>0.09638554216867472</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7590947151184082</v>
+        <v>0.9041547775268555</v>
       </c>
     </row>
     <row r="34">
@@ -1745,7 +1745,7 @@
         <v>0.07929515418502203</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5214133262634277</v>
+        <v>0.8336882591247559</v>
       </c>
     </row>
     <row r="35">
@@ -1783,7 +1783,7 @@
         <v>0.04848484848484849</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5326470732688904</v>
+        <v>0.7416057586669922</v>
       </c>
     </row>
     <row r="36">
@@ -1821,7 +1821,7 @@
         <v>0.02884615384615385</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4690973162651062</v>
+        <v>0.7189392447471619</v>
       </c>
     </row>
     <row r="37">
@@ -1859,7 +1859,7 @@
         <v>0.05291005291005291</v>
       </c>
       <c r="I37" t="n">
-        <v>0.5129052400588989</v>
+        <v>0.8183122873306274</v>
       </c>
     </row>
     <row r="38">
@@ -1897,7 +1897,7 @@
         <v>0.05235602094240837</v>
       </c>
       <c r="I38" t="n">
-        <v>0.585511326789856</v>
+        <v>0.8346889019012451</v>
       </c>
     </row>
     <row r="39">
@@ -1936,7 +1936,7 @@
         <v>0.15</v>
       </c>
       <c r="I39" t="n">
-        <v>0.4852209389209747</v>
+        <v>0.820612370967865</v>
       </c>
     </row>
     <row r="40">
@@ -1974,7 +1974,7 @@
         <v>0.06282722513089005</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5251766443252563</v>
+        <v>0.7885804176330566</v>
       </c>
     </row>
     <row r="41">
@@ -2013,7 +2013,7 @@
         <v>0.06629834254143646</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5461476445198059</v>
+        <v>0.8433105945587158</v>
       </c>
     </row>
     <row r="42">
@@ -2060,7 +2060,7 @@
         <v>0.09815950920245399</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6217485070228577</v>
+        <v>0.7758020758628845</v>
       </c>
     </row>
     <row r="43">
@@ -2102,7 +2102,7 @@
         <v>0.06451612903225808</v>
       </c>
       <c r="I43" t="n">
-        <v>0.629345178604126</v>
+        <v>0.8068506121635437</v>
       </c>
     </row>
     <row r="44">
@@ -2141,7 +2141,7 @@
         <v>0.1145833333333334</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6922857165336609</v>
+        <v>0.8701108694076538</v>
       </c>
     </row>
     <row r="45">
@@ -2179,7 +2179,7 @@
         <v>0.08695652173913043</v>
       </c>
       <c r="I45" t="n">
-        <v>0.622100830078125</v>
+        <v>0.8775241374969482</v>
       </c>
     </row>
     <row r="46">
@@ -2217,7 +2217,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7268305420875549</v>
+        <v>0.916775107383728</v>
       </c>
     </row>
     <row r="47">
@@ -2255,7 +2255,7 @@
         <v>0.08433734939759036</v>
       </c>
       <c r="I47" t="n">
-        <v>0.688474178314209</v>
+        <v>0.8795568346977234</v>
       </c>
     </row>
     <row r="48">
@@ -2294,7 +2294,7 @@
         <v>0.04519774011299435</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6240057349205017</v>
+        <v>0.8177449703216553</v>
       </c>
     </row>
     <row r="49">
@@ -2332,7 +2332,7 @@
         <v>0.09049773755656108</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4544816911220551</v>
+        <v>0.8708887100219727</v>
       </c>
     </row>
     <row r="50">
@@ -2370,7 +2370,7 @@
         <v>0.06698564593301437</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5969429016113281</v>
+        <v>0.825478732585907</v>
       </c>
     </row>
     <row r="51">
@@ -2414,7 +2414,7 @@
         <v>0.08888888888888889</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6336299777030945</v>
+        <v>0.8073870539665222</v>
       </c>
     </row>
   </sheetData>
